--- a/game_data_final/ZF Eger vs Szolnoki VSC.xlsx
+++ b/game_data_final/ZF Eger vs Szolnoki VSC.xlsx
@@ -85,7 +85,7 @@
     <t>Kickout Position</t>
   </si>
   <si>
-    <t>Ended Up 3-3</t>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>5m</t>
@@ -326,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -334,6 +334,10 @@
     </font>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -376,25 +380,25 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
